--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/67/incorrect_predictions_67.xlsx
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please check the</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/67/incorrect_predictions_67.xlsx
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Please check the</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
